--- a/biology/Médecine/Léproserie/Léproserie.xlsx
+++ b/biology/Médecine/Léproserie/Léproserie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie</t>
+          <t>Léproserie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une léproserie (ladrerie, maladrerie ou maladière) est un lieu d'isolement et de prise en charge des malades de la lèpre. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie</t>
+          <t>Léproserie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier hôpital du monde musulman a été créé pour traiter les patients atteints de la lèpre ainsi que pour les isoler du reste de la population, vers l'année 700. Ce premier bimaristan a été fondé à Damas sous le règne du calife omeyyade Abd Al-Malik[1]. À la différence des léproseries de Byzance, celles du monde musulman ne sont pour la plupart pas rattachées à une religion ou à un ordre religieux[1].
-Au début du XIIIe siècle, le testament du roi Louis VIII le Lion dénombre 2 000 léproseries dans le Royaume de France, c'est-à-dire sur un territoire plus restreint que celui de la France moderne[2]. La maladrerie des Frères du Val, à Abbeville[3], et la maladrerie de Saint Lazare à Saint-Ouen-l'Aumône[4] ont par exemple été fondées au XIIe siècle. 
-On les trouvait au bord des routes[5] et leurs chapelles étaient souvent dédiées à saint Lazare ou à Marie-Madeleine[6],[7].
-Au Canada, certains lazarets étaient isolés sur des îles : l'île de Sheldrake (1844-1848) au Nouveau-Brunswick, puis l'île d'Arcy (1891-1924) et l'île de Bentinck (1924-1957) en Colombie-Britannique[8]. Le lazaret de Tracadie (1849-1965) a remplacé celui de l'île de Sheldrake[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier hôpital du monde musulman a été créé pour traiter les patients atteints de la lèpre ainsi que pour les isoler du reste de la population, vers l'année 700. Ce premier bimaristan a été fondé à Damas sous le règne du calife omeyyade Abd Al-Malik. À la différence des léproseries de Byzance, celles du monde musulman ne sont pour la plupart pas rattachées à une religion ou à un ordre religieux.
+Au début du XIIIe siècle, le testament du roi Louis VIII le Lion dénombre 2 000 léproseries dans le Royaume de France, c'est-à-dire sur un territoire plus restreint que celui de la France moderne. La maladrerie des Frères du Val, à Abbeville, et la maladrerie de Saint Lazare à Saint-Ouen-l'Aumône ont par exemple été fondées au XIIe siècle. 
+On les trouvait au bord des routes et leurs chapelles étaient souvent dédiées à saint Lazare ou à Marie-Madeleine,.
+Au Canada, certains lazarets étaient isolés sur des îles : l'île de Sheldrake (1844-1848) au Nouveau-Brunswick, puis l'île d'Arcy (1891-1924) et l'île de Bentinck (1924-1957) en Colombie-Britannique. Le lazaret de Tracadie (1849-1965) a remplacé celui de l'île de Sheldrake.
 L'île de Spinalonga en Crète était l'une des léproseries les plus connues d'Europe (fermeture en 1957)[réf. nécessaire]. 
-La léproserie de Fontilles en Espagne héberge toujours une quarantaine de patients[10].
+La léproserie de Fontilles en Espagne héberge toujours une quarantaine de patients.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie</t>
+          <t>Léproserie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
